--- a/Assignments/Assignment3/MarkingWorkbook.xlsx
+++ b/Assignments/Assignment3/MarkingWorkbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\pmnotes\Assignments\Assignment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE97671-CB8E-4890-85D2-6CD74EECF55E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360DC638-4589-4573-B3C9-14C9797EDB43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="795" windowWidth="22755" windowHeight="14505" xr2:uid="{E1D604BD-E173-4E50-856F-6A27621094FF}"/>
+    <workbookView xWindow="9300" yWindow="735" windowWidth="17205" windowHeight="14505" xr2:uid="{E1D604BD-E173-4E50-856F-6A27621094FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,13 +139,34 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -161,12 +182,1675 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="166">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -476,178 +2160,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD7891A-D016-46AF-B460-AD3BF34B0CF9}">
-  <dimension ref="C2:G17"/>
+  <dimension ref="A2:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:G14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="2.42578125" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="81.140625" customWidth="1"/>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="81.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F2" s="2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="C3">
         <v>10</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="C4">
         <v>5</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="C5">
         <v>5</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="E6">
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="E7">
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="E8">
+      <c r="C8">
         <v>10</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="E9">
+      <c r="C9">
         <v>5</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="E10">
+      <c r="C10">
         <v>5</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="E11">
+      <c r="C11">
         <v>10</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="E12">
+      <c r="C12">
         <v>5</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="E13">
+      <c r="C13">
         <v>30</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="E14">
+      <c r="C14">
         <v>5</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="3:7" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C15" s="5" t="s">
+    <row r="15" spans="1:5" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="5">
-        <f>SUM(E3:E14)</f>
+      <c r="C15" s="5">
+        <f>SUM(C3:C14)</f>
         <v>100</v>
       </c>
-      <c r="F15" s="5">
-        <f>SUM(F3:F14)</f>
+      <c r="D15" s="5">
+        <f>SUM(D3:D14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:7" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F16" s="6">
-        <f>(F15/E15)*30</f>
+    <row r="16" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="6">
+        <f>(D15/C15)*35</f>
         <v>0</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="7:7" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G17" s="1" t="str">
-        <f>_xlfn.CONCAT(C3," ",F3,"/",E3, "  ",G3, "| ",C4," ",F4,"/",E4, "  ",G4, "| ",C5," ",F5,"/",E5, "  ",G5, "| ",C6," ",F6,"/",E6, "  ",G6, "| ",C7," ",F7,"/",E7, "  ",G7, "| ",C8," ",F8,"/",E8, "  ",G8, "| ",C9," ",F9,"/",E9, "  ",G9, "| ",C10," ",F10,"/",E10, "  ",G10, "| ",C11," ",F11,"/",E11, "  ",G11, "| ",C12," ",F12,"/",E12, "  ",G12, "| ",C13," ",F13,"/",E13, "  ",G13, "| ",C14," ",F14,"/",E14, "  ",G14, " ||*** ",C15," ",F15,"/",E15, "  ",G15, "***||")</f>
+    <row r="17" spans="5:5" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="str">
+        <f>_xlfn.CONCAT(A3," ",D3,"/",C3, "  ",E3, "| ",A4," ",D4,"/",C4, "  ",E4, "| ",A5," ",D5,"/",C5, "  ",E5, "| ",A6," ",D6,"/",C6, "  ",E6, "| ",A7," ",D7,"/",C7, "  ",E7, "| ",A8," ",D8,"/",C8, "  ",E8, "| ",A9," ",D9,"/",C9, "  ",E9, "| ",A10," ",D10,"/",C10, "  ",E10, "| ",A11," ",D11,"/",C11, "  ",E11, "| ",A12," ",D12,"/",C12, "  ",E12, "| ",A13," ",D13,"/",C13, "  ",E13, "| ",A14," ",D14,"/",C14, "  ",E14, " ||*** ",A15," ",D15,"/",C15, "  ",E15, "***||")</f>
         <v>Scope Statement  /10  | WBS /5  | RBS /5  | RACI /5  | Network &amp; Gantt /5  | Risk  /10  | Cost  /5  | Coms /5  | HRM /10  | Procurement /5  | BEP /30  | Reflective Statement /5   ||*** TOTAL 0/100  ***||</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="cellIs" dxfId="30" priority="17" operator="greaterThan">
+      <formula>$C$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="greaterThan">
+      <formula>$C$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D12 D14">
+    <cfRule type="cellIs" dxfId="28" priority="16" operator="greaterThan">
+      <formula>$C$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="27" priority="14" operator="greaterThan">
+      <formula>$C$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="26" priority="13" operator="greaterThan">
+      <formula>$C$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
+      <formula>$C$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="greaterThan">
+      <formula>$C$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="greaterThan">
+      <formula>$C$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="greaterThan">
+      <formula>$C$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="greaterThan">
+      <formula>$C$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="greaterThan">
+      <formula>$C$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="greaterThan">
+      <formula>$C$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="greaterThan">
+      <formula>$C$14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="greaterThan">
+      <formula>$C$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>$C$13</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>